--- a/data/trans_orig/P1403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36479</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26996</v>
+        <v>26568</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47612</v>
+        <v>47462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1336170564048791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09888405876447459</v>
+        <v>0.09731362821569144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1743964770844733</v>
+        <v>0.1738479242805962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>37952</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27828</v>
+        <v>27983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51835</v>
+        <v>51294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1455007349353201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1066880914076106</v>
+        <v>0.107282891306608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1987247711801415</v>
+        <v>0.1966522414719637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>74431</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59274</v>
+        <v>59632</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90496</v>
+        <v>91405</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1394234204692495</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.111030842459477</v>
+        <v>0.1117017352125605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1695157015309003</v>
+        <v>0.1712191527406071</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>236531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225398</v>
+        <v>225548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246014</v>
+        <v>246442</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8663829435951208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8256035229155271</v>
+        <v>0.8261520757194037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9011159412355256</v>
+        <v>0.9026863717843088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -836,19 +836,19 @@
         <v>222886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>209003</v>
+        <v>209544</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>233010</v>
+        <v>232855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8544992650646799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8012752288198586</v>
+        <v>0.8033477585280363</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8933119085923894</v>
+        <v>0.892717108693392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>440</v>
@@ -857,19 +857,19 @@
         <v>459417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443352</v>
+        <v>442443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>474574</v>
+        <v>474216</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8605765795307505</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8304842984690997</v>
+        <v>0.8287808472593929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8889691575405229</v>
+        <v>0.8882982647874395</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>47016</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34896</v>
+        <v>34861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61346</v>
+        <v>62298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09535332906196532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07077285348032597</v>
+        <v>0.07070044992687652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1244161571785863</v>
+        <v>0.1263455884391341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -982,19 +982,19 @@
         <v>88297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71857</v>
+        <v>73990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106365</v>
+        <v>107930</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1752103161768841</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1425881753540557</v>
+        <v>0.1468211242460675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2110635009612482</v>
+        <v>0.214169440292796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -1003,19 +1003,19 @@
         <v>135313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116355</v>
+        <v>114908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158258</v>
+        <v>159817</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1357172989800162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1167020859943525</v>
+        <v>0.1152512068312286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1587305793406813</v>
+        <v>0.1602943922902168</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>446059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431729</v>
+        <v>430777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458179</v>
+        <v>458214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9046466709380346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8755838428214138</v>
+        <v>0.8736544115608659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9292271465196741</v>
+        <v>0.9292995500731235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>413</v>
@@ -1053,19 +1053,19 @@
         <v>415652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>397584</v>
+        <v>396019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432092</v>
+        <v>429959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8247896838231159</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7889364990387518</v>
+        <v>0.7858305597072041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8574118246459443</v>
+        <v>0.8531788757539325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>834</v>
@@ -1074,19 +1074,19 @@
         <v>861711</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>838766</v>
+        <v>837207</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880669</v>
+        <v>882116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8642827010199838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8412694206593188</v>
+        <v>0.8397056077097834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8832979140056475</v>
+        <v>0.8847487931687715</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>46142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35157</v>
+        <v>34755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60443</v>
+        <v>59415</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1447163492299689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1102644423542819</v>
+        <v>0.1090039038930034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1895667221221457</v>
+        <v>0.1863452960635851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1199,19 +1199,19 @@
         <v>70778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56058</v>
+        <v>56618</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85886</v>
+        <v>86775</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2110183420764136</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1671332565412103</v>
+        <v>0.1688024095015682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.256061442648276</v>
+        <v>0.2587122758382348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1220,19 +1220,19 @@
         <v>116920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97869</v>
+        <v>99923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136002</v>
+        <v>138639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1787067430720456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1495873802040375</v>
+        <v>0.152727885901136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2078721253799857</v>
+        <v>0.2119021884068475</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>272704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258403</v>
+        <v>259431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283689</v>
+        <v>284091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8552836507700311</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8104332778778536</v>
+        <v>0.8136547039364148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.889735557645718</v>
+        <v>0.890996096106996</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1270,19 +1270,19 @@
         <v>264634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249526</v>
+        <v>248637</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>279354</v>
+        <v>278794</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7889816579235864</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7439385573517239</v>
+        <v>0.7412877241617656</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8328667434587895</v>
+        <v>0.8311975904984319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>529</v>
@@ -1291,19 +1291,19 @@
         <v>537338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518256</v>
+        <v>515619</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556389</v>
+        <v>554335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8212932569279544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7921278746200143</v>
+        <v>0.7880978115931521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8504126197959625</v>
+        <v>0.8472721140988638</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>51919</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39933</v>
+        <v>40504</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65800</v>
+        <v>66782</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1447538857933039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1113358417389359</v>
+        <v>0.1129266261400856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1834548327724409</v>
+        <v>0.1861919626119218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1416,19 +1416,19 @@
         <v>69767</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57051</v>
+        <v>55923</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86078</v>
+        <v>84905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1878195267261093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1535862361605281</v>
+        <v>0.150549688470943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2317307065200934</v>
+        <v>0.2285725436951462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -1437,19 +1437,19 @@
         <v>121686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103693</v>
+        <v>102890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142426</v>
+        <v>140567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1666637556169553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1420206664820951</v>
+        <v>0.1409200177720467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1950708198326515</v>
+        <v>0.1925234212372854</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>306752</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292871</v>
+        <v>291889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318738</v>
+        <v>318167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8552461142066962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8165451672275602</v>
+        <v>0.8138080373880778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8886641582610643</v>
+        <v>0.887073373859914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>311</v>
@@ -1487,19 +1487,19 @@
         <v>301689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285378</v>
+        <v>286551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314405</v>
+        <v>315533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8121804732738908</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.768269293479906</v>
+        <v>0.7714274563048539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8464137638394719</v>
+        <v>0.849450311529057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>618</v>
@@ -1508,19 +1508,19 @@
         <v>608441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>587701</v>
+        <v>589560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626434</v>
+        <v>627237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8333362443830447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.804929180167349</v>
+        <v>0.8074765787627146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8579793335179056</v>
+        <v>0.8590799822279532</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9461</v>
+        <v>9889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24684</v>
+        <v>24407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07816256722574347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04653466344392237</v>
+        <v>0.04863999639332545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1214099439104966</v>
+        <v>0.1200505867034538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1633,19 +1633,19 @@
         <v>30700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21121</v>
+        <v>21205</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42313</v>
+        <v>41786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1478315667599636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1017064284648128</v>
+        <v>0.1021109474473504</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2037515092470344</v>
+        <v>0.2012174188113845</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1654,19 +1654,19 @@
         <v>46591</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34399</v>
+        <v>34675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59822</v>
+        <v>59332</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1133666184987206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08370106424510462</v>
+        <v>0.08437177604498224</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1455612455380461</v>
+        <v>0.1443691648897358</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>187417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178624</v>
+        <v>178901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193847</v>
+        <v>193419</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9218374327742566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8785900560895034</v>
+        <v>0.879949413296546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9534653365560777</v>
+        <v>0.9513600036066743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -1704,19 +1704,19 @@
         <v>176968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>165355</v>
+        <v>165882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186547</v>
+        <v>186463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8521684332400363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7962484907529653</v>
+        <v>0.7987825811886156</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8982935715351871</v>
+        <v>0.8978890525526496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>358</v>
@@ -1725,19 +1725,19 @@
         <v>364385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>351154</v>
+        <v>351644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>376577</v>
+        <v>376301</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8866333815012793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8544387544619539</v>
+        <v>0.8556308351102644</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9162989357548954</v>
+        <v>0.915628223955018</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>41023</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30632</v>
+        <v>30549</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52653</v>
+        <v>52828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1514832943001677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1131131665997374</v>
+        <v>0.1128062231007588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1944261182034342</v>
+        <v>0.1950750014423879</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -1850,19 +1850,19 @@
         <v>52721</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41212</v>
+        <v>40740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68327</v>
+        <v>67680</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1895459015374595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1481690163220696</v>
+        <v>0.1464711681146331</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2456522667176829</v>
+        <v>0.2433276309179135</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -1871,19 +1871,19 @@
         <v>93744</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77215</v>
+        <v>77759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110992</v>
+        <v>112079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1707688199813528</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1406581278475218</v>
+        <v>0.1416494074079104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2021877915779775</v>
+        <v>0.2041684743817254</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>229788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218158</v>
+        <v>217983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240179</v>
+        <v>240262</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8485167056998323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8055738817965657</v>
+        <v>0.8049249985576118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8868868334002625</v>
+        <v>0.8871937768992412</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>220</v>
@@ -1921,19 +1921,19 @@
         <v>225423</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>209817</v>
+        <v>210464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>236932</v>
+        <v>237404</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8104540984625405</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7543477332823171</v>
+        <v>0.7566723690820866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8518309836779304</v>
+        <v>0.8535288318853669</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>445</v>
@@ -1942,19 +1942,19 @@
         <v>455211</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>437963</v>
+        <v>436876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471740</v>
+        <v>471196</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8292311800186472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7978122084220225</v>
+        <v>0.7958315256182749</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8593418721524781</v>
+        <v>0.8583505925920896</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>87975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71674</v>
+        <v>71660</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106787</v>
+        <v>105325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1430425225907582</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1165384474355366</v>
+        <v>0.1165151432663356</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1736297967147248</v>
+        <v>0.1712533743042649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -2067,19 +2067,19 @@
         <v>110888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90744</v>
+        <v>94275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128687</v>
+        <v>131013</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1737466478282941</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1421834846087051</v>
+        <v>0.1477149828084946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2016351112336847</v>
+        <v>0.2052797703050752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>199</v>
@@ -2088,19 +2088,19 @@
         <v>198863</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173808</v>
+        <v>173205</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>225272</v>
+        <v>226384</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1586786839045678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1386862236306428</v>
+        <v>0.1382048493128725</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1797505913853612</v>
+        <v>0.1806382393645038</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>527052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>508240</v>
+        <v>509702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>543353</v>
+        <v>543367</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8569574774092418</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8263702032852741</v>
+        <v>0.8287466256957353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.883461552564463</v>
+        <v>0.8834848567336649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>512</v>
@@ -2138,19 +2138,19 @@
         <v>527331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>509532</v>
+        <v>507206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>547475</v>
+        <v>543944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8262533521717059</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7983648887663153</v>
+        <v>0.7947202296949248</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8578165153912948</v>
+        <v>0.8522850171915053</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1020</v>
@@ -2159,19 +2159,19 @@
         <v>1054383</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1027974</v>
+        <v>1026862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1079438</v>
+        <v>1080041</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8413213160954323</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8202494086146388</v>
+        <v>0.8193617606354963</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8613137763693571</v>
+        <v>0.8617951506871276</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>100774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84451</v>
+        <v>83408</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121520</v>
+        <v>120109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1354868509961858</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1135408419682248</v>
+        <v>0.1121387668849555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1633776915881019</v>
+        <v>0.1614815773130578</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>103</v>
@@ -2284,19 +2284,19 @@
         <v>111696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>92042</v>
+        <v>92951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132169</v>
+        <v>131573</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1425586742811657</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1174737736978247</v>
+        <v>0.1186335683712775</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1686885549477961</v>
+        <v>0.1679271911620635</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>207</v>
@@ -2305,19 +2305,19 @@
         <v>212471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>187254</v>
+        <v>185388</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>241244</v>
+        <v>241899</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1391147102345993</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1226039476354876</v>
+        <v>0.1213825194215162</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1579540209601395</v>
+        <v>0.1583826680599858</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>643021</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>622275</v>
+        <v>623686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>659344</v>
+        <v>660387</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8645131490038142</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.836622308411898</v>
+        <v>0.8385184226869423</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8864591580317751</v>
+        <v>0.8878612331150447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>642</v>
@@ -2355,19 +2355,19 @@
         <v>671815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>651342</v>
+        <v>651938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>691469</v>
+        <v>690560</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8574413257188344</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8313114450522039</v>
+        <v>0.8320728088379364</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8825262263021754</v>
+        <v>0.8813664316287225</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1274</v>
@@ -2376,19 +2376,19 @@
         <v>1314835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1286062</v>
+        <v>1285407</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1340052</v>
+        <v>1341918</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8608852897654008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8420459790398606</v>
+        <v>0.8416173319400142</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8773960523645125</v>
+        <v>0.8786174805784839</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>427220</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1303875023548679</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>556</v>
@@ -2501,19 +2501,19 @@
         <v>572800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1695076079990115</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>993</v>
@@ -2522,19 +2522,19 @@
         <v>1000020</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1502492372171193</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2849323</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2815321</v>
+        <v>2810955</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2886381</v>
+        <v>2883568</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8696124976451322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.859235216013023</v>
+        <v>0.8579027875018285</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8809225557830339</v>
+        <v>0.8800639998455756</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2741</v>
@@ -2572,19 +2572,19 @@
         <v>2806397</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2762676</v>
+        <v>2765801</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2847692</v>
+        <v>2848338</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8304923920009885</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8175538571077187</v>
+        <v>0.8184786849149923</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8427126398411884</v>
+        <v>0.8429039273364707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5518</v>
@@ -2593,19 +2593,19 @@
         <v>5655721</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5602009</v>
+        <v>5595152</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5716859</v>
+        <v>5711143</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8497507627828808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8416806929711542</v>
+        <v>0.8406504589709894</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8589364748342931</v>
+        <v>0.8580776487087201</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>32759</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23235</v>
+        <v>22773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45766</v>
+        <v>46633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1111458379877766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07883171591387056</v>
+        <v>0.07726376875706402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.155276610731795</v>
+        <v>0.1582173239363884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2962,19 +2962,19 @@
         <v>43323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31663</v>
+        <v>31826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57612</v>
+        <v>58036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1508231430625055</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1102294816693006</v>
+        <v>0.1107979673289139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2005688060527448</v>
+        <v>0.2020440433289928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -2983,19 +2983,19 @@
         <v>76082</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59844</v>
+        <v>60749</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92162</v>
+        <v>94032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1307290679095007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1028285541034837</v>
+        <v>0.1043832152148294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.15835913951576</v>
+        <v>0.1615709209676372</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>261979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248972</v>
+        <v>248105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271503</v>
+        <v>271965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8888541620122234</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8447233892682046</v>
+        <v>0.8417826760636116</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9211682840861294</v>
+        <v>0.9227362312429359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>215</v>
@@ -3033,19 +3033,19 @@
         <v>243922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229633</v>
+        <v>229209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255582</v>
+        <v>255419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8491768569374946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7994311939472548</v>
+        <v>0.7979559566710069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8897705183306994</v>
+        <v>0.8892020326710861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -3054,19 +3054,19 @@
         <v>505901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>489821</v>
+        <v>487951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>522139</v>
+        <v>521234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8692709320904993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8416408604842399</v>
+        <v>0.8384290790323627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8971714458965163</v>
+        <v>0.8956167847851705</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>81021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63403</v>
+        <v>63980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99715</v>
+        <v>99540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1602693912808577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1254192386124785</v>
+        <v>0.1265604228647646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1972502160925067</v>
+        <v>0.1969026493835602</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -3179,19 +3179,19 @@
         <v>104898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87319</v>
+        <v>86544</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127530</v>
+        <v>125059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2007017557124894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1670687385245201</v>
+        <v>0.1655854228086801</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2440032638467199</v>
+        <v>0.2392755665546383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -3200,19 +3200,19 @@
         <v>185919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162316</v>
+        <v>161513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213003</v>
+        <v>213153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1808223674868023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1578668118871154</v>
+        <v>0.157086140376698</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2071643398044073</v>
+        <v>0.2073100437756083</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>424506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405812</v>
+        <v>405987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>442124</v>
+        <v>441547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8397306087191424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8027497839074934</v>
+        <v>0.8030973506164398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8745807613875216</v>
+        <v>0.8734395771352357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>383</v>
@@ -3250,19 +3250,19 @@
         <v>417758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>395126</v>
+        <v>397597</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>435337</v>
+        <v>436112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7992982442875106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7559967361532802</v>
+        <v>0.7607244334453619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8329312614754799</v>
+        <v>0.8344145771913201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>783</v>
@@ -3271,19 +3271,19 @@
         <v>842265</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>815181</v>
+        <v>815031</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865868</v>
+        <v>866671</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8191776325131976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7928356601955922</v>
+        <v>0.7926899562243916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8421331881128845</v>
+        <v>0.8429138596233017</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>59995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46684</v>
+        <v>46970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75566</v>
+        <v>73988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1851436859656712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.144065930132664</v>
+        <v>0.1449482068291744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2331961867489266</v>
+        <v>0.2283268049975286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -3396,19 +3396,19 @@
         <v>77848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63630</v>
+        <v>63258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96162</v>
+        <v>95492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.228278675034327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1865874732987944</v>
+        <v>0.1854956599114382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2819832940267107</v>
+        <v>0.2800174811078507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -3417,19 +3417,19 @@
         <v>137843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118412</v>
+        <v>115729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159031</v>
+        <v>159221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2072616323446388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1780456777236598</v>
+        <v>0.1740118647404187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2391210233812673</v>
+        <v>0.2394066309777451</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>264051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248480</v>
+        <v>250058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277362</v>
+        <v>277076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8148563140343288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7668038132510734</v>
+        <v>0.7716731950024714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.855934069867336</v>
+        <v>0.8550517931708257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -3467,19 +3467,19 @@
         <v>263172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244858</v>
+        <v>245528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277390</v>
+        <v>277762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.771721324965673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7180167059732893</v>
+        <v>0.7199825188921491</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8134125267012056</v>
+        <v>0.8145043400885618</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -3488,19 +3488,19 @@
         <v>527223</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>506035</v>
+        <v>505845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>546654</v>
+        <v>549337</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7927383676553612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7608789766187327</v>
+        <v>0.7605933690222545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8219543222763401</v>
+        <v>0.825988135259581</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>68266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52395</v>
+        <v>53456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85766</v>
+        <v>85266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.182539254358719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1401005306948492</v>
+        <v>0.1429361570113336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2293330190507296</v>
+        <v>0.2279948426624496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3613,19 +3613,19 @@
         <v>98827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82092</v>
+        <v>81168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117090</v>
+        <v>116938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2540853287315704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2110606346888956</v>
+        <v>0.2086831566265794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3010404297208299</v>
+        <v>0.3006499109472203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -3634,19 +3634,19 @@
         <v>167093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143946</v>
+        <v>143272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192737</v>
+        <v>190668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2190141647862975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1886739119154953</v>
+        <v>0.1877905554513232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2526265010974348</v>
+        <v>0.2499149500265812</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>305716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>288216</v>
+        <v>288716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321587</v>
+        <v>320526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.817460745641281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7706669809492704</v>
+        <v>0.7720051573375503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8598994693051513</v>
+        <v>0.857063842988666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>274</v>
@@ -3684,19 +3684,19 @@
         <v>290124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>271861</v>
+        <v>272013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306859</v>
+        <v>307783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7459146712684296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6989595702791702</v>
+        <v>0.6993500890527797</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7889393653111044</v>
+        <v>0.7913168433734206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>558</v>
@@ -3705,19 +3705,19 @@
         <v>595840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>570196</v>
+        <v>572265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>618987</v>
+        <v>619661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7809858352137026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7473734989025653</v>
+        <v>0.7500850499734188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8113260880845047</v>
+        <v>0.8122094445486768</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>32119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21535</v>
+        <v>22570</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44147</v>
+        <v>44518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1510638867445563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1012863724097937</v>
+        <v>0.106152758117039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2076356712258167</v>
+        <v>0.2093807660778331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3830,19 +3830,19 @@
         <v>57874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45657</v>
+        <v>45198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72387</v>
+        <v>71901</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2635520636544011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2079168061898633</v>
+        <v>0.2058266155647752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3296439924702704</v>
+        <v>0.327431513836102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -3851,19 +3851,19 @@
         <v>89993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72761</v>
+        <v>72767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106631</v>
+        <v>108969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2082153782822131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.168345742294387</v>
+        <v>0.1683597797231736</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2467117938487012</v>
+        <v>0.2521221940411225</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>180499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168471</v>
+        <v>168100</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191083</v>
+        <v>190048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8489361132554437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7923643287741826</v>
+        <v>0.7906192339221662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8987136275902061</v>
+        <v>0.8938472418829608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -3901,19 +3901,19 @@
         <v>161717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147204</v>
+        <v>147690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173934</v>
+        <v>174393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7364479363455989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6703560075297296</v>
+        <v>0.672568486163898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7920831938101366</v>
+        <v>0.7941733844352248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>324</v>
@@ -3922,19 +3922,19 @@
         <v>342216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325578</v>
+        <v>323240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>359448</v>
+        <v>359442</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.791784621717787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7532882061512988</v>
+        <v>0.7478778059588775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8316542577056131</v>
+        <v>0.8316402202768264</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>63529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50598</v>
+        <v>50105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78230</v>
+        <v>79011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2318752321425071</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1846779381947484</v>
+        <v>0.1828773316759411</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2855301038969089</v>
+        <v>0.2883797862557054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -4047,19 +4047,19 @@
         <v>63467</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49877</v>
+        <v>50083</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79330</v>
+        <v>77405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.228217975806159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1793503300730757</v>
+        <v>0.1800932838407486</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2852597916781182</v>
+        <v>0.2783395530838736</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -4068,19 +4068,19 @@
         <v>126996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108608</v>
+        <v>109849</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147553</v>
+        <v>146946</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2300329748190283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1967255768297846</v>
+        <v>0.1989742312305425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2672684931306811</v>
+        <v>0.266169375029132</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>210452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195751</v>
+        <v>194970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223383</v>
+        <v>223876</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7681247678574928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7144698961030911</v>
+        <v>0.7116202137442945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8153220618052515</v>
+        <v>0.8171226683240588</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -4118,19 +4118,19 @@
         <v>214629</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198766</v>
+        <v>200691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228219</v>
+        <v>228013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.771782024193841</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7147402083218819</v>
+        <v>0.7216604469161264</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8206496699269243</v>
+        <v>0.8199067161592515</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -4139,19 +4139,19 @@
         <v>425081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>404524</v>
+        <v>405131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443469</v>
+        <v>442228</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7699670251809717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7327315068693189</v>
+        <v>0.733830624970868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8032744231702154</v>
+        <v>0.8010257687694574</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>125457</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103192</v>
+        <v>106699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>147612</v>
+        <v>150607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1892868307906475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.155694478384731</v>
+        <v>0.1609856336876294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2227134541855449</v>
+        <v>0.2272328196316172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -4264,19 +4264,19 @@
         <v>160118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139148</v>
+        <v>135402</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182991</v>
+        <v>183039</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.230765801601684</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2005442282908154</v>
+        <v>0.1951450407748271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2637314772186478</v>
+        <v>0.2638009423536125</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>258</v>
@@ -4285,19 +4285,19 @@
         <v>285575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>254020</v>
+        <v>255460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>315879</v>
+        <v>316939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.210501217579932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1872415398594187</v>
+        <v>0.1883030154957194</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2328393062895388</v>
+        <v>0.2336202645118196</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>537331</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>515176</v>
+        <v>512181</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>559596</v>
+        <v>556089</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8107131692093525</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7772865458144552</v>
+        <v>0.7727671803683829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.844305521615269</v>
+        <v>0.8390143663123706</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>492</v>
@@ -4335,19 +4335,19 @@
         <v>533735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>510862</v>
+        <v>510814</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>554705</v>
+        <v>558451</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7692341983983161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7362685227813522</v>
+        <v>0.7361990576463875</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7994557717091846</v>
+        <v>0.8048549592251729</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>996</v>
@@ -4356,19 +4356,19 @@
         <v>1071066</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1040762</v>
+        <v>1039702</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1102621</v>
+        <v>1101181</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.789498782420068</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7671606937104613</v>
+        <v>0.7663797354881804</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8127584601405813</v>
+        <v>0.8116969845042806</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>113432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93599</v>
+        <v>93495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136769</v>
+        <v>135035</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1455940938938498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1201374302903526</v>
+        <v>0.1200039945273888</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1755482786188894</v>
+        <v>0.1733217489975644</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -4481,19 +4481,19 @@
         <v>138841</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117784</v>
+        <v>117675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160502</v>
+        <v>163818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1687878931461169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1431886905587689</v>
+        <v>0.1430565125298499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1951210648866101</v>
+        <v>0.1991524280741591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -4502,19 +4502,19 @@
         <v>252273</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223683</v>
+        <v>222198</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>286302</v>
+        <v>282975</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1575058046945276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1396555902458541</v>
+        <v>0.1387284020573379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1787513143269409</v>
+        <v>0.1766742278441918</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>665666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>642329</v>
+        <v>644063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>685499</v>
+        <v>685603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8544059061061502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8244517213811108</v>
+        <v>0.8266782510024356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8798625697096474</v>
+        <v>0.8799960054726114</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>630</v>
@@ -4552,19 +4552,19 @@
         <v>683737</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>662076</v>
+        <v>658760</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>704794</v>
+        <v>704903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8312121068538831</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8048789351133899</v>
+        <v>0.8008475719258412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8568113094412312</v>
+        <v>0.8569434874701501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1246</v>
@@ -4573,19 +4573,19 @@
         <v>1349403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1315374</v>
+        <v>1318701</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1377993</v>
+        <v>1379478</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8424941953054724</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8212486856730591</v>
+        <v>0.8233257721558083</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8603444097541459</v>
+        <v>0.8612715979426621</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>576578</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1682566781647132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>691</v>
@@ -4698,19 +4698,19 @@
         <v>745194</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2096782586834362</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1215</v>
@@ -4719,19 +4719,19 @@
         <v>1321773</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1893448824549868</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2850201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2805660</v>
+        <v>2806325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2897187</v>
+        <v>2895163</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8317433218352869</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8187456644134432</v>
+        <v>0.8189396760220166</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8454548718591824</v>
+        <v>0.8448642883478744</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2604</v>
@@ -4769,19 +4769,19 @@
         <v>2808796</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2759048</v>
+        <v>2758160</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2855469</v>
+        <v>2856729</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7903217413165639</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7763239921641353</v>
+        <v>0.7760741124063466</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8034543719630878</v>
+        <v>0.8038090164292747</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5289</v>
@@ -4790,19 +4790,19 @@
         <v>5658996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5590997</v>
+        <v>5586981</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5730026</v>
+        <v>5721134</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8106551175450133</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8009142688318194</v>
+        <v>0.8003389684461455</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8208302088277027</v>
+        <v>0.8195564006426825</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>34803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22781</v>
+        <v>23683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46546</v>
+        <v>47685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1184737799796161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07754878486563917</v>
+        <v>0.08062054261294165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1584477328905729</v>
+        <v>0.1623255951489569</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -5159,19 +5159,19 @@
         <v>34135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23568</v>
+        <v>24288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46193</v>
+        <v>46480</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1182373068861804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08163467238229782</v>
+        <v>0.08412758731249255</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.160002718234235</v>
+        <v>0.1609963195705207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -5180,19 +5180,19 @@
         <v>68938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53779</v>
+        <v>53762</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86423</v>
+        <v>86956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1183565701754399</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09233059898977478</v>
+        <v>0.09230042044196653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1483755090835371</v>
+        <v>0.1492894396471613</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>258958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247215</v>
+        <v>246076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270980</v>
+        <v>270078</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8815262200203838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8415522671094271</v>
+        <v>0.8376744048510434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9224512151343608</v>
+        <v>0.9193794573870584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -5230,19 +5230,19 @@
         <v>254568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242510</v>
+        <v>242223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265135</v>
+        <v>264415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8817626931138196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8399972817657648</v>
+        <v>0.8390036804294797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.918365327617702</v>
+        <v>0.9158724126875074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>481</v>
@@ -5251,19 +5251,19 @@
         <v>513526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496041</v>
+        <v>495508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528685</v>
+        <v>528702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8816434298245601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8516244909164629</v>
+        <v>0.8507105603528387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9076694010102252</v>
+        <v>0.9076995795580335</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>83692</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68792</v>
+        <v>67682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102431</v>
+        <v>102607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1665272126454785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1368787851212334</v>
+        <v>0.1346700036500686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2038116351631112</v>
+        <v>0.204161925320246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -5376,19 +5376,19 @@
         <v>118194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99181</v>
+        <v>98719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137029</v>
+        <v>139796</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2259551347071228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1896090547639272</v>
+        <v>0.1887256294661002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2619633747071796</v>
+        <v>0.2672525598653907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -5397,19 +5397,19 @@
         <v>201886</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176374</v>
+        <v>177186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230137</v>
+        <v>229077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1968353211163204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1719613314540876</v>
+        <v>0.172753305173134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2243795215788039</v>
+        <v>0.2233457382331377</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>418883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400144</v>
+        <v>399968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433783</v>
+        <v>434893</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8334727873545216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7961883648368889</v>
+        <v>0.795838074679754</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8631212148787666</v>
+        <v>0.8653299963499315</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -5447,19 +5447,19 @@
         <v>404890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>386055</v>
+        <v>383288</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>423903</v>
+        <v>424365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7740448652928772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7380366252928203</v>
+        <v>0.7327474401346094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8103909452360728</v>
+        <v>0.8112743705338999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>780</v>
@@ -5468,19 +5468,19 @@
         <v>823773</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>795522</v>
+        <v>796582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>849285</v>
+        <v>848473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8031646788836796</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7756204784211959</v>
+        <v>0.7766542617668623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8280386685459122</v>
+        <v>0.827246694826866</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>47093</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35714</v>
+        <v>36166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59681</v>
+        <v>60988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1478299563298755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1121075765945961</v>
+        <v>0.1135291575291442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1873419501905532</v>
+        <v>0.1914469432626937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5593,19 +5593,19 @@
         <v>50898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39261</v>
+        <v>37296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68125</v>
+        <v>66487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1513440419259322</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1167394489867837</v>
+        <v>0.1108994294028748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2025678456394456</v>
+        <v>0.1976952015200705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -5614,19 +5614,19 @@
         <v>97992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82412</v>
+        <v>81224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119527</v>
+        <v>117183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1496346067213452</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258442001363495</v>
+        <v>0.1240292756747569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1825193372975615</v>
+        <v>0.1789401329060948</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>271472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258884</v>
+        <v>257577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282851</v>
+        <v>282399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8521700436701245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.812658049809447</v>
+        <v>0.8085530567373063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.887892423405404</v>
+        <v>0.8864708424708561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -5664,19 +5664,19 @@
         <v>285411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268184</v>
+        <v>269822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>297048</v>
+        <v>299013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8486559580740678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.797432154360554</v>
+        <v>0.8023047984799294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8832605510132159</v>
+        <v>0.8891005705971252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -5685,19 +5685,19 @@
         <v>556882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>535347</v>
+        <v>537691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572462</v>
+        <v>573650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8503653932786549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8174806627024386</v>
+        <v>0.8210598670939051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8741557998636504</v>
+        <v>0.8759707243252431</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>61937</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47913</v>
+        <v>48367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77061</v>
+        <v>77614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1674145864910875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1295066897351869</v>
+        <v>0.130735403621553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2082927941917513</v>
+        <v>0.2097866991224402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -5810,19 +5810,19 @@
         <v>77741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59944</v>
+        <v>62260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97888</v>
+        <v>96033</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2007332186872166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.154780512589723</v>
+        <v>0.1607619784206107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2527550208569335</v>
+        <v>0.2479654848498625</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -5831,19 +5831,19 @@
         <v>139678</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118822</v>
+        <v>119671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>162032</v>
+        <v>164614</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1844549179517815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1569134877169742</v>
+        <v>0.1580349283130122</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2139748898541304</v>
+        <v>0.2173842368179877</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>308027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292903</v>
+        <v>292350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322051</v>
+        <v>321597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8325854135089125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7917072058082484</v>
+        <v>0.7902133008775598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.870493310264813</v>
+        <v>0.8692645963784471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -5881,19 +5881,19 @@
         <v>309542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289395</v>
+        <v>291250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327339</v>
+        <v>325023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7992667813127835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7472449791430664</v>
+        <v>0.7520345151501374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8452194874102769</v>
+        <v>0.8392380215793893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>582</v>
@@ -5902,19 +5902,19 @@
         <v>617569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>595215</v>
+        <v>592633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>638425</v>
+        <v>637576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8155450820482185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7860251101458693</v>
+        <v>0.7826157631820122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8430865122830256</v>
+        <v>0.8419650716869876</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>26377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17131</v>
+        <v>18008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36756</v>
+        <v>38278</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1248791129563264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0811041172921981</v>
+        <v>0.08525595196550476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1740180112491735</v>
+        <v>0.181222133083382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -6027,19 +6027,19 @@
         <v>43616</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32747</v>
+        <v>32548</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56362</v>
+        <v>56056</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1995365518765729</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.149810392315313</v>
+        <v>0.148899557242568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2578470500824676</v>
+        <v>0.2564488416603088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -6048,19 +6048,19 @@
         <v>69993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54154</v>
+        <v>55303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85777</v>
+        <v>85437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1628475678649636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1259950024170954</v>
+        <v>0.1286688873371038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1995695212560607</v>
+        <v>0.1987797418166462</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>184844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174465</v>
+        <v>172943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194090</v>
+        <v>193213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8751208870436736</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8259819887508265</v>
+        <v>0.818777866916618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.918895882707802</v>
+        <v>0.9147440480344953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -6098,19 +6098,19 @@
         <v>174971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162225</v>
+        <v>162531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185840</v>
+        <v>186039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8004634481234271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7421529499175326</v>
+        <v>0.7435511583396913</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8501896076846877</v>
+        <v>0.8511004427574324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>368</v>
@@ -6119,19 +6119,19 @@
         <v>359815</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344031</v>
+        <v>344371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>375654</v>
+        <v>374505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8371524321350364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8004304787439395</v>
+        <v>0.8012202581833537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8740049975829047</v>
+        <v>0.8713311126628962</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>36219</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26864</v>
+        <v>26014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48606</v>
+        <v>47900</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1376502492154035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1020978602235932</v>
+        <v>0.09886715160372755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.184728041122429</v>
+        <v>0.1820428309090794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -6244,19 +6244,19 @@
         <v>47338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35826</v>
+        <v>35394</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60745</v>
+        <v>60817</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.173326329236179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.131175619874478</v>
+        <v>0.1295929358416741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2224159841310578</v>
+        <v>0.2226791805172305</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -6265,19 +6265,19 @@
         <v>83557</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67487</v>
+        <v>68485</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101409</v>
+        <v>101174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1558206746932313</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1258528663904127</v>
+        <v>0.1277147075833073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1891113017508431</v>
+        <v>0.1886745704366186</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>226904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214517</v>
+        <v>215223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236259</v>
+        <v>237109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8623497507845964</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8152719588775701</v>
+        <v>0.8179571690909204</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8979021397764068</v>
+        <v>0.9011328483962721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>220</v>
@@ -6315,19 +6315,19 @@
         <v>225777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>212370</v>
+        <v>212298</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237289</v>
+        <v>237721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.826673670763821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7775840158689421</v>
+        <v>0.7773208194827693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8688243801255221</v>
+        <v>0.8704070641583259</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>440</v>
@@ -6336,19 +6336,19 @@
         <v>452681</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434829</v>
+        <v>435064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468751</v>
+        <v>467753</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8441793253067688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.810888698249157</v>
+        <v>0.8113254295633814</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8741471336095872</v>
+        <v>0.8722852924166927</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>94538</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76773</v>
+        <v>77565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114693</v>
+        <v>115009</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1439903512434751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1169329956543749</v>
+        <v>0.1181387871656025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1746885722135738</v>
+        <v>0.1751692221796258</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -6461,19 +6461,19 @@
         <v>98655</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79806</v>
+        <v>79303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>120240</v>
+        <v>118535</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1427112885684758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1154436822220589</v>
+        <v>0.1147163893852395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1739341608773866</v>
+        <v>0.1714683593619991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -6482,19 +6482,19 @@
         <v>193193</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>167188</v>
+        <v>167275</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>219892</v>
+        <v>222842</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.143334338302095</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1240402847928619</v>
+        <v>0.1241047108724228</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1631427890407968</v>
+        <v>0.1653315326841804</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>562020</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>541865</v>
+        <v>541549</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>579785</v>
+        <v>578993</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8560096487565249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8253114277864262</v>
+        <v>0.8248307778203742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.883067004345625</v>
+        <v>0.8818612128343976</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>562</v>
@@ -6532,19 +6532,19 @@
         <v>592639</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571054</v>
+        <v>572759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>611488</v>
+        <v>611991</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8572887114315242</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8260658391226132</v>
+        <v>0.8285316406380012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.884556317777941</v>
+        <v>0.8852836106147607</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1054</v>
@@ -6553,19 +6553,19 @@
         <v>1154659</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1127960</v>
+        <v>1125010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1180664</v>
+        <v>1180577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.856665661697905</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8368572109592031</v>
+        <v>0.8346684673158197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.875959715207138</v>
+        <v>0.8758952891275777</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>129513</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109744</v>
+        <v>107539</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151586</v>
+        <v>151356</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1663448114060363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1409539608219247</v>
+        <v>0.1381214431924565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1946946054437985</v>
+        <v>0.1943991392761792</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -6678,19 +6678,19 @@
         <v>158826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134377</v>
+        <v>134650</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>187898</v>
+        <v>184164</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1922440935739229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1626514659603619</v>
+        <v>0.1629819004477856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.22743358216831</v>
+        <v>0.2229140026785986</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>258</v>
@@ -6699,19 +6699,19 @@
         <v>288339</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>258715</v>
+        <v>257249</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>321975</v>
+        <v>319748</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.179678434910382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1612181989567107</v>
+        <v>0.1603047988905965</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2006388639106048</v>
+        <v>0.1992511796751334</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>649070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>626997</v>
+        <v>627227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>668839</v>
+        <v>671044</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8336551885939637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8053053945562015</v>
+        <v>0.8056008607238206</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8590460391780753</v>
+        <v>0.8618785568075432</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>625</v>
@@ -6749,19 +6749,19 @@
         <v>667341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>638269</v>
+        <v>642003</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>691790</v>
+        <v>691517</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8077559064260771</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7725664178316899</v>
+        <v>0.7770859973214012</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8373485340396376</v>
+        <v>0.8370180995522144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1247</v>
@@ -6770,19 +6770,19 @@
         <v>1316411</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1282775</v>
+        <v>1285002</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1346035</v>
+        <v>1347501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.820321565089618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7993611360893949</v>
+        <v>0.8007488203248666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.838781801043289</v>
+        <v>0.8396952011094037</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>514174</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1514792265437319</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>539</v>
@@ -6895,19 +6895,19 @@
         <v>629403</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1775696854656333</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1047</v>
@@ -6916,19 +6916,19 @@
         <v>1143577</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1648068187388403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2880176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2834268</v>
+        <v>2835202</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2916606</v>
+        <v>2918284</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8485207734562682</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8349959409385206</v>
+        <v>0.8352710343601703</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8592532815686563</v>
+        <v>0.8597475324891812</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2799</v>
@@ -6966,19 +6966,19 @@
         <v>2915139</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2860211</v>
+        <v>2865277</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2960816</v>
+        <v>2961180</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8224303145343667</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8069339376267928</v>
+        <v>0.8083632498766283</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8353170503734652</v>
+        <v>0.8354196200718784</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5522</v>
@@ -6987,19 +6987,19 @@
         <v>5795315</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5731879</v>
+        <v>5736700</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5855276</v>
+        <v>5860929</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8351931812611597</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8260510602392398</v>
+        <v>0.8267458714618828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8438344780560956</v>
+        <v>0.8446491813422794</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>68949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54771</v>
+        <v>56881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83558</v>
+        <v>83466</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2162474870912057</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1717805067411023</v>
+        <v>0.178397259302133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2620632247465894</v>
+        <v>0.2617765060031665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -7356,19 +7356,19 @@
         <v>59321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50378</v>
+        <v>49490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70727</v>
+        <v>69728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1876890117357278</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1593947532593992</v>
+        <v>0.1565840880142636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2237761263377117</v>
+        <v>0.2206151199399972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -7377,19 +7377,19 @@
         <v>128271</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113256</v>
+        <v>111412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149974</v>
+        <v>146164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2020308768170613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1783819552529824</v>
+        <v>0.1754784058319927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2362152185033123</v>
+        <v>0.2302140779407181</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>249896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235287</v>
+        <v>235379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264074</v>
+        <v>261964</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7837525129087942</v>
+        <v>0.7837525129087943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7379367752534107</v>
+        <v>0.7382234939968335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8282194932588978</v>
+        <v>0.8216027406978671</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>418</v>
@@ -7427,19 +7427,19 @@
         <v>256740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245334</v>
+        <v>246333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265683</v>
+        <v>266571</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8123109882642722</v>
+        <v>0.8123109882642723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.776223873662288</v>
+        <v>0.7793848800600027</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8406052467406004</v>
+        <v>0.8434159119857362</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>664</v>
@@ -7448,19 +7448,19 @@
         <v>506635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>484932</v>
+        <v>488742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521650</v>
+        <v>523494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7979691231829388</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7637847814966875</v>
+        <v>0.7697859220592819</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8216180447470175</v>
+        <v>0.8245215941680072</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>87740</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70791</v>
+        <v>70747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107499</v>
+        <v>107481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1656525639533475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1336541967475647</v>
+        <v>0.1335713780200792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2029587530745284</v>
+        <v>0.2029254300009311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -7573,19 +7573,19 @@
         <v>86948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73649</v>
+        <v>74823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103568</v>
+        <v>102205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1598226685758717</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1353784162541839</v>
+        <v>0.137536435256109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1903740844815686</v>
+        <v>0.187867005382888</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>217</v>
@@ -7594,19 +7594,19 @@
         <v>174687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154335</v>
+        <v>152000</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200717</v>
+        <v>197361</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1626986120595876</v>
+        <v>0.1626986120595875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.143742735171671</v>
+        <v>0.1415681170629418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1869418899399459</v>
+        <v>0.1838161766719003</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>441920</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>422161</v>
+        <v>422179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458869</v>
+        <v>458913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8343474360466525</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7970412469254717</v>
+        <v>0.797074569999069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8663458032524353</v>
+        <v>0.866428621979921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -7644,19 +7644,19 @@
         <v>457078</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>440458</v>
+        <v>441821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>470377</v>
+        <v>469203</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8401773314241283</v>
+        <v>0.8401773314241282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8096259155184313</v>
+        <v>0.812132994617112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8646215837458159</v>
+        <v>0.862463564743891</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -7665,19 +7665,19 @@
         <v>898999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>872969</v>
+        <v>876325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>919351</v>
+        <v>921686</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8373013879404126</v>
+        <v>0.8373013879404124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.813058110060054</v>
+        <v>0.8161838233280996</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.856257264828329</v>
+        <v>0.8584318829370582</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>62993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51963</v>
+        <v>52595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76237</v>
+        <v>76718</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2003242701430574</v>
+        <v>0.2003242701430575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1652476629962565</v>
+        <v>0.1672567686780617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2424432855312574</v>
+        <v>0.2439711831142047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -7790,19 +7790,19 @@
         <v>78055</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66403</v>
+        <v>65962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89928</v>
+        <v>90319</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2190221520830474</v>
+        <v>0.2190221520830475</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1863254630209344</v>
+        <v>0.1850895208074913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2523367341637243</v>
+        <v>0.2534345700751378</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -7811,19 +7811,19 @@
         <v>141048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125450</v>
+        <v>124874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158808</v>
+        <v>157565</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2102575164721958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1870060505981368</v>
+        <v>0.1861460978245058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2367321094692378</v>
+        <v>0.234878934727172</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>251461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238217</v>
+        <v>237736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262491</v>
+        <v>261859</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7996757298569426</v>
+        <v>0.7996757298569428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7575567144687431</v>
+        <v>0.7560288168857954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8347523370037436</v>
+        <v>0.8327432313219385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>390</v>
@@ -7861,19 +7861,19 @@
         <v>278326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266453</v>
+        <v>266062</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289978</v>
+        <v>290419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7809778479169526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7476632658362756</v>
+        <v>0.7465654299248623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8136745369790658</v>
+        <v>0.8149104791925088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>653</v>
@@ -7882,19 +7882,19 @@
         <v>529788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>512028</v>
+        <v>513271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545386</v>
+        <v>545962</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7897424835278043</v>
+        <v>0.7897424835278042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7632678905307622</v>
+        <v>0.7651210652728281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8129939494018633</v>
+        <v>0.8138539021754944</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>71812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57442</v>
+        <v>56760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90805</v>
+        <v>89273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1924504603195097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1539401950763353</v>
+        <v>0.1521134608544707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2433511210975975</v>
+        <v>0.2392447060047982</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>199</v>
@@ -8007,19 +8007,19 @@
         <v>94217</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81099</v>
+        <v>81725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107008</v>
+        <v>108697</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2232836140847273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1921965004396914</v>
+        <v>0.1936790040133775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2535973349148128</v>
+        <v>0.2576003535424722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -8028,19 +8028,19 @@
         <v>166029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145555</v>
+        <v>145882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186647</v>
+        <v>189050</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2088135497562984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1830636226193018</v>
+        <v>0.1834744861970362</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2347450236174946</v>
+        <v>0.2377661231333108</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>301333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282340</v>
+        <v>283872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315703</v>
+        <v>316385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8075495396804903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7566488789024024</v>
+        <v>0.7607552939952017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8460598049236647</v>
+        <v>0.8478865391455296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -8078,19 +8078,19 @@
         <v>327744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314953</v>
+        <v>313264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340862</v>
+        <v>340236</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7767163859152727</v>
+        <v>0.7767163859152729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7464026650851872</v>
+        <v>0.7423996464575278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8078034995603086</v>
+        <v>0.8063209959866223</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>608</v>
@@ -8099,19 +8099,19 @@
         <v>629078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>608460</v>
+        <v>606057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>649552</v>
+        <v>649225</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7911864502437015</v>
+        <v>0.7911864502437016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7652549763825055</v>
+        <v>0.7622338768666886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8169363773806979</v>
+        <v>0.8165255138029636</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>46457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37705</v>
+        <v>36900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56939</v>
+        <v>55984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2258891219595987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1833307604859078</v>
+        <v>0.179415573930254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.276850981425491</v>
+        <v>0.2722090924414498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -8224,19 +8224,19 @@
         <v>62807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54532</v>
+        <v>54056</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71596</v>
+        <v>71795</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2773864857643615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2408420392810995</v>
+        <v>0.2387408152830426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3162032618899974</v>
+        <v>0.3170819135969835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>240</v>
@@ -8245,19 +8245,19 @@
         <v>109264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96733</v>
+        <v>97734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123618</v>
+        <v>122782</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.252874796387662</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.223874311595149</v>
+        <v>0.2261896885306233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.28609471144909</v>
+        <v>0.2841596012948123</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>159208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148726</v>
+        <v>149681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167960</v>
+        <v>168765</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7741108780404011</v>
+        <v>0.7741108780404014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7231490185745093</v>
+        <v>0.7277909075585502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8166692395140922</v>
+        <v>0.8205844260697459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>329</v>
@@ -8295,19 +8295,19 @@
         <v>163616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154827</v>
+        <v>154628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>171891</v>
+        <v>172367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7226135142356386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6837967381100025</v>
+        <v>0.682918086403016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7591579607189005</v>
+        <v>0.7612591847169574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>529</v>
@@ -8316,19 +8316,19 @@
         <v>322823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>308469</v>
+        <v>309305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>335354</v>
+        <v>334353</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.747125203612338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.71390528855091</v>
+        <v>0.7158403987051879</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.776125688404851</v>
+        <v>0.773810311469377</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>72071</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60783</v>
+        <v>60763</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83735</v>
+        <v>84548</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2662312220313466</v>
+        <v>0.2662312220313465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.22453366979306</v>
+        <v>0.2244612841446589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3093181688279762</v>
+        <v>0.3123227782809734</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -8441,19 +8441,19 @@
         <v>62501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53412</v>
+        <v>54447</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72660</v>
+        <v>73142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2375576474285411</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2030098908212364</v>
+        <v>0.206944326371458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2761681073043953</v>
+        <v>0.278001890137692</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>289</v>
@@ -8462,19 +8462,19 @@
         <v>134572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120254</v>
+        <v>120234</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149922</v>
+        <v>149974</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2520987616746817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.225275822098462</v>
+        <v>0.2252384065362867</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2808544519921391</v>
+        <v>0.2809522162101478</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>198636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186972</v>
+        <v>186159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209924</v>
+        <v>209944</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7337687779686536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6906818311720236</v>
+        <v>0.6876772217190262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7754663302069399</v>
+        <v>0.7755387158553408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>306</v>
@@ -8512,19 +8512,19 @@
         <v>200598</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>190439</v>
+        <v>189957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209687</v>
+        <v>208652</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7624423525714589</v>
+        <v>0.762442352571459</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7238318926956047</v>
+        <v>0.7219981098623081</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7969901091787636</v>
+        <v>0.7930556736285419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -8533,19 +8533,19 @@
         <v>399234</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383884</v>
+        <v>383832</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413552</v>
+        <v>413572</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7479012383253185</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7191455480078608</v>
+        <v>0.7190477837898523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7747241779015379</v>
+        <v>0.7747615934637133</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>131258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110177</v>
+        <v>111852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153734</v>
+        <v>156608</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1832062688315198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1537817361346565</v>
+        <v>0.1561205528735101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2145775634752562</v>
+        <v>0.2185899491703079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>237</v>
@@ -8658,19 +8658,19 @@
         <v>164100</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146279</v>
+        <v>146293</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186435</v>
+        <v>185309</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2129240954958173</v>
+        <v>0.2129240954958172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1897999703420048</v>
+        <v>0.1898180984659079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2419043868363605</v>
+        <v>0.2404427065892053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>368</v>
@@ -8679,19 +8679,19 @@
         <v>295358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>267203</v>
+        <v>268894</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>326204</v>
+        <v>323382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1986072349765012</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1796750965699554</v>
+        <v>0.1808121531099204</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2193488606273213</v>
+        <v>0.2174511402574201</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>585190</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>562714</v>
+        <v>559840</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>606271</v>
+        <v>604596</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8167937311684801</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7854224365247438</v>
+        <v>0.7814100508296922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8462182638653434</v>
+        <v>0.8438794471264897</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>721</v>
@@ -8729,19 +8729,19 @@
         <v>606599</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>584264</v>
+        <v>585390</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>624420</v>
+        <v>624406</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7870759045041829</v>
+        <v>0.7870759045041826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7580956131636396</v>
+        <v>0.7595572934107948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8102000296579952</v>
+        <v>0.810181901534092</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1186</v>
@@ -8750,19 +8750,19 @@
         <v>1191790</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1160944</v>
+        <v>1163766</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1219945</v>
+        <v>1218254</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8013927650234988</v>
+        <v>0.8013927650234989</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7806511393726787</v>
+        <v>0.78254885974258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8203249034300446</v>
+        <v>0.8191878468900796</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>133990</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>116076</v>
+        <v>114674</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>153894</v>
+        <v>156299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1678920001840816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1454449256558896</v>
+        <v>0.1436885047168351</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1928327552441145</v>
+        <v>0.1958453955423413</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>268</v>
@@ -8875,19 +8875,19 @@
         <v>173158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155507</v>
+        <v>154413</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192176</v>
+        <v>193027</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2084717262416669</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1872209560629048</v>
+        <v>0.1859035628506608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2313670019370553</v>
+        <v>0.2323915561169614</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>440</v>
@@ -8896,19 +8896,19 @@
         <v>307148</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>279002</v>
+        <v>281027</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>334701</v>
+        <v>335475</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1885872022020127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.171305715474905</v>
+        <v>0.1725489115219163</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2055041310643357</v>
+        <v>0.2059794256209188</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>664082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>644178</v>
+        <v>641773</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>681996</v>
+        <v>683398</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8321079998159183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8071672447558854</v>
+        <v>0.8041546044576586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8545550743441106</v>
+        <v>0.8563114952831649</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>793</v>
@@ -8946,19 +8946,19 @@
         <v>657451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>638433</v>
+        <v>637582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>675102</v>
+        <v>676196</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7915282737583331</v>
+        <v>0.7915282737583332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7686329980629446</v>
+        <v>0.7676084438830391</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8127790439370952</v>
+        <v>0.8140964371493391</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1383</v>
@@ -8967,19 +8967,19 @@
         <v>1321533</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1293980</v>
+        <v>1293206</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1349679</v>
+        <v>1347654</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8114127977979871</v>
+        <v>0.8114127977979873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7944958689356648</v>
+        <v>0.794020574379081</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8286942845250949</v>
+        <v>0.8274510884780835</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>675270</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1419</v>
@@ -9092,19 +9092,19 @@
         <v>781108</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2283</v>
@@ -9113,19 +9113,19 @@
         <v>1456378</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2007064805581659</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2851727</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2802387</v>
+        <v>2804153</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2892442</v>
+        <v>2894749</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8085425957883042</v>
+        <v>0.8085425957883041</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7945533667524706</v>
+        <v>0.7950540780950809</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8200864213511282</v>
+        <v>0.8207404286261732</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3935</v>
@@ -9163,19 +9163,19 @@
         <v>2948152</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2907654</v>
+        <v>2905237</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2985602</v>
+        <v>2982228</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7905460839117147</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7796865642708553</v>
+        <v>0.7790385748961233</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8005882044619747</v>
+        <v>0.7996834696461388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6441</v>
@@ -9184,19 +9184,19 @@
         <v>5799878</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5745116</v>
+        <v>5739656</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5862334</v>
+        <v>5856691</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7992935194418341</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7917465593394315</v>
+        <v>0.7909941120261519</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8079005977580165</v>
+        <v>0.8071229315530626</v>
       </c>
     </row>
     <row r="30">
